--- a/P4/Cuestionario SUS DIU.xlsx
+++ b/P4/Cuestionario SUS DIU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonni\OneDrive\Escritorio\UGR\Diseño Interfaces de Usuarios\Prácticas\DIU\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F386F9A4-4710-4569-BE4A-E4C834B9C7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C6F9B7-5095-4E02-BE6D-A188D51E061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t xml:space="preserve">DISEÑO DE INTERFACES DE USUARIO </t>
   </si>
@@ -324,6 +324,18 @@
   </si>
   <si>
     <t>TEST B:</t>
+  </si>
+  <si>
+    <t>#Albert</t>
+  </si>
+  <si>
+    <t>Estudiante Matemáticas</t>
+  </si>
+  <si>
+    <t>Muy Baja</t>
+  </si>
+  <si>
+    <t>Persona introvertida y poco social, le gustan los videojuegos y el tenis.</t>
   </si>
 </sst>
 </file>
@@ -575,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -670,6 +682,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,8 +1035,8 @@
   </sheetPr>
   <dimension ref="A1:K1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>6</v>
@@ -1114,7 +1129,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="8">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -1128,7 +1143,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="32" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -1142,7 +1157,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="32" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -1150,13 +1165,13 @@
       <c r="B9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="32" t="s">
-        <v>44</v>
+      <c r="F9" s="39" t="s">
+        <v>52</v>
       </c>
       <c r="G9" s="11"/>
     </row>
